--- a/data/trans_orig/IMC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal</t>
+          <t>Índice de masa corporal (tasa de respuesta: 97,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Estudios-trans_orig.xlsx
@@ -656,47 +656,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>26,87</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27,89</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26,49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26,84</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26,56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28,01</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>27,26</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>26,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>26,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,42</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>28,01</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>26,19</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>27,26</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,74</t>
+          <t>26,68</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,8; 27,84</t>
+          <t>26,28; 27,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,39; 28,49</t>
+          <t>27,37; 28,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,85; 27,81</t>
+          <t>25,77; 27,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 26,87</t>
+          <t>26,01; 27,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,57; 28,42</t>
+          <t>27,6; 28,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,29; 28,48</t>
+          <t>26,33; 28,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 27,1</t>
+          <t>26,28; 27,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 28,33</t>
+          <t>27,65; 28,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,33; 27,78</t>
+          <t>26,38; 27,9</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,61</t>
+          <t>26,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,23</t>
+          <t>25,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,91</t>
+          <t>25,75</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 26,89</t>
+          <t>26,07; 26,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,33; 28,39</t>
+          <t>26,3; 28,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,83; 26,48</t>
+          <t>25,84; 26,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,0; 25,52</t>
+          <t>24,86; 25,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,49; 29,32</t>
+          <t>25,49; 29,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 25,68</t>
+          <t>24,9; 25,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 26,09</t>
+          <t>25,57; 25,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 28,51</t>
+          <t>26,04; 28,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,45; 25,95</t>
+          <t>25,46; 25,98</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,21</t>
+          <t>25,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,18</t>
+          <t>24,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>24,58</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,88; 25,56</t>
+          <t>24,84; 25,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 26,53</t>
+          <t>25,8; 26,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,96</t>
+          <t>25,24; 25,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,84; 24,58</t>
+          <t>23,73; 24,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 25,21</t>
+          <t>24,4; 25,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,02; 23,74</t>
+          <t>23,06; 23,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 24,9</t>
+          <t>24,32; 24,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,76</t>
+          <t>25,23; 25,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,1; 24,61</t>
+          <t>24,09; 24,64</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,36</t>
+          <t>26,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,16</t>
+          <t>25,02</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,71</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 26,57</t>
+          <t>25,86; 26,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,45; 28,03</t>
+          <t>26,45; 28,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 26,34</t>
+          <t>25,8; 26,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 25,35</t>
+          <t>24,81; 25,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 28,91</t>
+          <t>25,81; 28,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 25,09</t>
+          <t>24,54; 25,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 25,84</t>
+          <t>25,39; 25,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,2; 28,06</t>
+          <t>26,2; 28,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,2; 25,58</t>
+          <t>25,21; 25,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IMC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27,8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26,84</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26,49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>26,87</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>26,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>26,84</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>28,05</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27,26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>26,56</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>28,01</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>26,19</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>27,26</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>27,96</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27,05</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>26,68</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>27,96</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>26,32</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>27,05</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>27,3; 28,36</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 27,81</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26,09; 27,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>26,28; 27,46</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>27,37; 28,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>26,09; 27,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>25,77; 27,81</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>27,65; 28,47</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 28,49</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25,8; 26,55</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>26,01; 27,16</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>27,6; 28,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>25,8; 26,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>26,33; 28,49</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>27,67; 28,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 27,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 26,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>26,28; 27,07</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>27,65; 28,34</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>26,03; 26,63</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>26,38; 27,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>26,43</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26,15</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26,17</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>26,34</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>27,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>26,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,15</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>25,6</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25,25</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24,9</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>25,14</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>26,9</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,9</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>25,25</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>26,02</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,71</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25,53</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>25,75</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,99</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>25,53</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>25,71</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>26,13; 26,69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25,84; 26,52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25,96; 26,41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>26,07; 26,62</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>26,3; 28,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>25,96; 26,41</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>25,84; 26,52</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>25,35; 25,84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 25,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 25,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>24,86; 25,45</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>25,49; 29,37</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>24,63; 25,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>24,9; 25,67</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>25,84; 26,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25,46; 25,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 25,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>25,57; 25,97</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>26,04; 28,67</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>25,35; 25,72</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>25,46; 25,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>26,09</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25,59</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25,52</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>25,18</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>26,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>25,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>25,59</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>24,84</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23,38</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23,17</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>24,09</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>24,78</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,17</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,38</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>25,48</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,37</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>24,58</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>25,49</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>24,29</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>24,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>25,73; 26,47</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 25,96</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 25,9</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>24,84; 25,55</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>25,8; 26,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>25,24; 25,9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>25,24; 25,96</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>24,47; 25,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23,06; 23,73</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 23,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>23,73; 24,54</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>24,4; 25,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>22,9; 23,46</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23,06; 23,73</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>25,23; 25,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 24,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 24,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>24,32; 24,86</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>25,23; 25,77</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>24,09; 24,51</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>24,09; 24,64</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>26,51</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,06</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26,05</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>26,08</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>26,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>26,05</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26,06</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>25,89</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24,79</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24,66</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>25,02</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>26,67</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,66</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>24,79</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>26,19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,33</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>25,52</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>26,81</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>25,33</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>25,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>26,3; 26,72</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25,8; 26,32</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25,87; 26,21</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>25,86; 26,28</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 28,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>25,87; 26,21</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>25,8; 26,32</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>25,69; 26,1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24,54; 25,11</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 24,84</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>24,81; 25,26</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>25,81; 28,59</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>24,46; 24,84</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>24,54; 25,11</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>26,05; 26,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 25,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 25,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>25,39; 25,67</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 28,04</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>25,2; 25,46</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>25,21; 25,57</t>
         </is>
       </c>
     </row>
